--- a/Feast data/DNDC_in_Nov6.xlsx
+++ b/Feast data/DNDC_in_Nov6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hawkj\Documents\Github\Crop-simulation-study\Feast data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\go29gaj\Documents\Github\DNDC Modelling\Feast data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE89665-B12A-469F-AFD7-0DAA4C19955A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6DEC8CF-BB9D-44FE-BB6F-376DDFB8C72D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" activeTab="1" xr2:uid="{883A2D82-BC89-4C73-8F2D-52BCDA082F90}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="4" xr2:uid="{883A2D82-BC89-4C73-8F2D-52BCDA082F90}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="8" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="68">
   <si>
     <t>Cow</t>
   </si>
@@ -224,6 +224,27 @@
   </si>
   <si>
     <t>THSH</t>
+  </si>
+  <si>
+    <t># Average manure emptying (3 AEZ)</t>
+  </si>
+  <si>
+    <t># THSH: 3.4 months</t>
+  </si>
+  <si>
+    <t># THH: 2.9 months</t>
+  </si>
+  <si>
+    <t># SH: 4.8 months</t>
+  </si>
+  <si>
+    <t>Average removal frequency</t>
+  </si>
+  <si>
+    <t>N lost per month MM</t>
+  </si>
+  <si>
+    <t>Fraction N from manure available for soil</t>
   </si>
 </sst>
 </file>
@@ -320,7 +341,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Feeding"/>
@@ -351,9 +372,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -391,7 +412,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -497,7 +518,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -639,7 +660,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -647,20 +668,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E13FADA7-9457-4EA6-A356-4357D0AB3C16}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="3" max="3" width="10.3671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.3671875" customWidth="1"/>
-    <col min="5" max="5" width="16.1015625" customWidth="1"/>
-    <col min="6" max="6" width="15.47265625" customWidth="1"/>
-    <col min="7" max="7" width="19.15625" customWidth="1"/>
-    <col min="8" max="8" width="14.3671875" customWidth="1"/>
+    <col min="3" max="3" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.36328125" customWidth="1"/>
+    <col min="5" max="5" width="16.08984375" customWidth="1"/>
+    <col min="6" max="6" width="15.453125" customWidth="1"/>
+    <col min="7" max="7" width="19.1796875" customWidth="1"/>
+    <col min="8" max="8" width="14.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -727,7 +748,7 @@
       </c>
       <c r="D3" s="5">
         <f>SA!F15</f>
-        <v>4.6833628645088208</v>
+        <v>3.5125221483816151</v>
       </c>
       <c r="E3" s="5">
         <f>SA!H15</f>
@@ -757,7 +778,7 @@
       </c>
       <c r="D4" s="5">
         <f>SA!F16</f>
-        <v>0.12513492590255668</v>
+        <v>9.3851194426917514E-2</v>
       </c>
       <c r="E4" s="5">
         <f>SA!H16</f>
@@ -786,27 +807,27 @@
       </c>
       <c r="C5" s="5">
         <f>SH!D14</f>
-        <v>0.25605838385445523</v>
+        <v>0.19204378789084142</v>
       </c>
       <c r="D5" s="5">
         <f>SH!F14</f>
-        <v>18.333626464350818</v>
+        <v>13.750219848263114</v>
       </c>
       <c r="E5" s="5">
         <f>SH!H14</f>
-        <v>0.32131879482973652</v>
+        <v>0.2409890961223024</v>
       </c>
       <c r="F5" s="5">
         <f>SH!J14</f>
-        <v>0.28239671907694752</v>
+        <v>0.21179753930771056</v>
       </c>
       <c r="G5" s="5">
         <f>SH!L14</f>
-        <v>0.28239671907694752</v>
+        <v>0.21179753930771056</v>
       </c>
       <c r="H5" s="5">
         <f>SH!N14</f>
-        <v>0.34411472051046343</v>
+        <v>0.25808604038284755</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -820,7 +841,7 @@
       </c>
       <c r="D6" s="5">
         <f>SH!F15</f>
-        <v>5.5973981938185107</v>
+        <v>4.1980486453638832</v>
       </c>
       <c r="E6" s="5">
         <f>SH!H15</f>
@@ -850,7 +871,7 @@
       </c>
       <c r="D7" s="5">
         <f>SH!F16</f>
-        <v>6.1809242365089148</v>
+        <v>4.6356931773816861</v>
       </c>
       <c r="E7" s="5">
         <f>SH!H16</f>
@@ -879,27 +900,27 @@
       </c>
       <c r="C8" s="5">
         <f>THH!D14</f>
-        <v>2.0763833937879728</v>
+        <v>1.5572875453409794</v>
       </c>
       <c r="D8" s="5">
         <f>THH!F14</f>
-        <v>5.9650135270120614</v>
+        <v>4.4737601452590461</v>
       </c>
       <c r="E8" s="5">
         <f>THH!H14</f>
-        <v>2.6824467892315642</v>
+        <v>2.0118350919236727</v>
       </c>
       <c r="F8" s="5">
         <f>THH!J14</f>
-        <v>2.4772549759861571</v>
+        <v>1.8579412319896176</v>
       </c>
       <c r="G8" s="5">
         <f>THH!L14</f>
-        <v>2.4772549759861562</v>
+        <v>1.8579412319896171</v>
       </c>
       <c r="H8" s="5">
         <f>THH!N14</f>
-        <v>2.7629909416059779</v>
+        <v>2.0722432062044835</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -913,7 +934,7 @@
       </c>
       <c r="D9" s="5">
         <f>THH!F15</f>
-        <v>2.1606531050366913</v>
+        <v>1.6204898287775182</v>
       </c>
       <c r="E9" s="5">
         <f>THH!H15</f>
@@ -943,7 +964,7 @@
       </c>
       <c r="D10" s="5">
         <f>THH!F16</f>
-        <v>0.92004364981914888</v>
+        <v>0.69003273736436155</v>
       </c>
       <c r="E10" s="5">
         <f>THH!H16</f>
@@ -972,27 +993,27 @@
       </c>
       <c r="C11" s="5">
         <f>THSH!D14</f>
-        <v>0.94113228912150415</v>
+        <v>0.70584921684112811</v>
       </c>
       <c r="D11" s="5">
         <f>THSH!F14</f>
-        <v>7.1027718358975998</v>
+        <v>5.3270788769231991</v>
       </c>
       <c r="E11" s="5">
         <f>THSH!H14</f>
-        <v>1.2572759105584583</v>
+        <v>0.94295693291884364</v>
       </c>
       <c r="F11" s="5">
         <f>THSH!J14</f>
-        <v>0.75007167433095989</v>
+        <v>0.56255375574821986</v>
       </c>
       <c r="G11" s="5">
         <f>THSH!L14</f>
-        <v>1.0992158854276832</v>
+        <v>0.82441191407076242</v>
       </c>
       <c r="H11" s="5">
         <f>THSH!N14</f>
-        <v>1.3707721966904121</v>
+        <v>1.0280791475178088</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1006,7 +1027,7 @@
       </c>
       <c r="D12" s="5">
         <f>THSH!F15</f>
-        <v>5.5690249934385427</v>
+        <v>4.1767687450789062</v>
       </c>
       <c r="E12" s="5">
         <f>THSH!H15</f>
@@ -1036,7 +1057,7 @@
       </c>
       <c r="D13" s="5">
         <f>THSH!F16</f>
-        <v>2.5009162691688109</v>
+        <v>1.875687201876608</v>
       </c>
       <c r="E13" s="5">
         <f>THSH!H16</f>
@@ -1053,6 +1074,26 @@
       <c r="H13" s="5">
         <f>THSH!N16</f>
         <v>17.478235025121002</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4">
+      <c r="D19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4">
+      <c r="D20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4">
+      <c r="D21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4">
+      <c r="D22" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1065,20 +1106,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75DB5EB5-5AF2-41F5-92DB-FD4BD9571043}">
   <dimension ref="A1:X52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="18.5234375" customWidth="1"/>
+    <col min="1" max="1" width="18.54296875" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="17.47265625" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" customWidth="1"/>
     <col min="4" max="6" width="15" customWidth="1"/>
-    <col min="7" max="8" width="12.3671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.3671875" customWidth="1"/>
-    <col min="11" max="14" width="12.3671875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.734375" customWidth="1"/>
+    <col min="7" max="8" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.36328125" customWidth="1"/>
+    <col min="11" max="14" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
@@ -1151,7 +1192,7 @@
         <v>35</v>
       </c>
       <c r="Q2">
-        <v>0.1</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -1209,6 +1250,12 @@
       <c r="N3" s="5">
         <f>C22</f>
         <v>17607.5629739373</v>
+      </c>
+      <c r="P3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q3">
+        <v>3.1</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -1655,11 +1702,11 @@
       </c>
       <c r="E11" s="5">
         <f>T10*E$10*$Q$2/T16</f>
-        <v>0.72412425235822886</v>
+        <v>0.54309318926867156</v>
       </c>
       <c r="F11" s="5">
         <f>T10*F$10*$Q$2/T16</f>
-        <v>0.29673036942691561</v>
+        <v>0.22254777707018666</v>
       </c>
       <c r="G11" s="5">
         <f>$U10*G$10*$Q$2/$U16</f>
@@ -1735,11 +1782,11 @@
       </c>
       <c r="E12" s="5">
         <f>T11*E$10*$Q$2/T16</f>
-        <v>3.2826966106906368</v>
+        <v>2.4620224580179775</v>
       </c>
       <c r="F12" s="5">
         <f>U11*F$10*$Q$2/U16</f>
-        <v>1.4006662538181835</v>
+        <v>1.0504996903636377</v>
       </c>
       <c r="G12" s="5">
         <f>$U11*G$10/$U16</f>
@@ -1815,11 +1862,11 @@
       </c>
       <c r="E13" s="5">
         <f>T12*E$10*$Q$2/T16</f>
-        <v>9.654990031443049E-2</v>
+        <v>7.2412425235822864E-2</v>
       </c>
       <c r="F13" s="5">
         <f>U12*F$10*$Q$2/U16</f>
-        <v>2.8585025588126197E-2</v>
+        <v>2.1438769191094647E-2</v>
       </c>
       <c r="G13" s="5">
         <f>$U12*G$10/$U16</f>
@@ -1892,7 +1939,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7">
         <f>SUM(E11:F11)</f>
-        <v>1.0208546217851444</v>
+        <v>0.76564096633885825</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7">
@@ -1953,7 +2000,7 @@
       <c r="E15" s="5"/>
       <c r="F15" s="7">
         <f t="shared" ref="F15:F16" si="17">SUM(E12:F12)</f>
-        <v>4.6833628645088208</v>
+        <v>3.5125221483816151</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7">
@@ -2014,7 +2061,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="7">
         <f t="shared" si="17"/>
-        <v>0.12513492590255668</v>
+        <v>9.3851194426917514E-2</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7">
@@ -2340,18 +2387,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F8D96AD-44EA-439D-A507-2743A6E031FA}">
   <dimension ref="A1:X52"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="15.47265625" customWidth="1"/>
-    <col min="3" max="3" width="17.47265625" customWidth="1"/>
+    <col min="2" max="2" width="15.453125" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" customWidth="1"/>
     <col min="4" max="6" width="15" customWidth="1"/>
-    <col min="7" max="8" width="12.3671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.3671875" customWidth="1"/>
-    <col min="11" max="14" width="12.3671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.36328125" customWidth="1"/>
+    <col min="11" max="14" width="12.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
@@ -2424,7 +2471,7 @@
         <v>35</v>
       </c>
       <c r="Q2">
-        <v>0.1</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -2481,6 +2528,12 @@
       <c r="N3" s="5">
         <f>C22</f>
         <v>16446.633675298999</v>
+      </c>
+      <c r="P3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q3">
+        <v>4.8</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -2921,51 +2974,51 @@
       </c>
       <c r="C11" s="5">
         <f>$S10*C$10*$Q$2/S16</f>
-        <v>0.18483639517725584</v>
+        <v>0.13862729638294188</v>
       </c>
       <c r="D11" s="5">
         <f>$S10*D$10*$Q$2/S16</f>
-        <v>7.1221988677199394E-2</v>
+        <v>5.3416491507899531E-2</v>
       </c>
       <c r="E11" s="5">
         <f>T10*E$10*$Q$2/T16</f>
-        <v>13.386368323941902</v>
+        <v>10.039776242956426</v>
       </c>
       <c r="F11" s="5">
         <f>T10*F$10*$Q$2/T16</f>
-        <v>4.9472581404089171</v>
+        <v>3.7104436053066872</v>
       </c>
       <c r="G11" s="5">
         <f>$U10*G$10*$Q$2/$U16</f>
-        <v>0.23461216172150684</v>
+        <v>0.17595912129113012</v>
       </c>
       <c r="H11" s="5">
         <f>$U10*H$10*$Q$2/$U16</f>
-        <v>8.6706633108229694E-2</v>
+        <v>6.5029974831172274E-2</v>
       </c>
       <c r="I11" s="5">
         <f>$V10*I$10*$Q$2/$V16</f>
-        <v>0.19925498720543364</v>
+        <v>0.14944124040407519</v>
       </c>
       <c r="J11" s="5">
         <f>$V10*J$10*$Q$2/$V16</f>
-        <v>8.3141731871513858E-2</v>
+        <v>6.2356298903635379E-2</v>
       </c>
       <c r="K11" s="5">
         <f>$W10*K$10*$Q$2/$W16</f>
-        <v>0.19925498720543364</v>
+        <v>0.14944124040407519</v>
       </c>
       <c r="L11" s="5">
         <f>$W10*L$10*$Q$2/$W16</f>
-        <v>8.3141731871513858E-2</v>
+        <v>6.2356298903635379E-2</v>
       </c>
       <c r="M11" s="5">
         <f>$X10*M$10*$Q$2/$X16</f>
-        <v>0.24733464822347723</v>
+        <v>0.18550098616760791</v>
       </c>
       <c r="N11" s="5">
         <f>$X10*N$10*$Q$2/$X16</f>
-        <v>9.6780072286986207E-2</v>
+        <v>7.2585054215239642E-2</v>
       </c>
       <c r="R11" t="str">
         <f>SA!R11</f>
@@ -3013,11 +3066,11 @@
       </c>
       <c r="E12" s="5">
         <f>T11*E$10*$Q$2/T16</f>
-        <v>1.7580312700236898</v>
+        <v>1.3185234525177674</v>
       </c>
       <c r="F12" s="5">
         <f>U11*F$10*$Q$2/U16</f>
-        <v>3.8393669237948211</v>
+        <v>2.8795251928461156</v>
       </c>
       <c r="G12" s="5">
         <f>$U11*G$10/$U16</f>
@@ -3097,11 +3150,11 @@
       </c>
       <c r="E13" s="5">
         <f>T12*E$10*$Q$2/T16</f>
-        <v>5.4187857551738583</v>
+        <v>4.0640893163803931</v>
       </c>
       <c r="F13" s="5">
         <f>U12*F$10*$Q$2/U16</f>
-        <v>0.76213848133505679</v>
+        <v>0.57160386100129257</v>
       </c>
       <c r="G13" s="5">
         <f>$U12*G$10/$U16</f>
@@ -3170,32 +3223,32 @@
       <c r="C14" s="5"/>
       <c r="D14" s="7">
         <f>SUM(C11:D11)</f>
-        <v>0.25605838385445523</v>
+        <v>0.19204378789084142</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7">
         <f>SUM(E11:F11)</f>
-        <v>18.333626464350818</v>
+        <v>13.750219848263114</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7">
         <f>SUM(G11:H11)</f>
-        <v>0.32131879482973652</v>
+        <v>0.2409890961223024</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7">
         <f>SUM(I11:J11)</f>
-        <v>0.28239671907694752</v>
+        <v>0.21179753930771056</v>
       </c>
       <c r="K14" s="7"/>
       <c r="L14" s="7">
         <f>SUM(K11:L11)</f>
-        <v>0.28239671907694752</v>
+        <v>0.21179753930771056</v>
       </c>
       <c r="M14" s="7"/>
       <c r="N14" s="7">
         <f>SUM(M11:N11)</f>
-        <v>0.34411472051046343</v>
+        <v>0.25808604038284755</v>
       </c>
       <c r="R14" t="str">
         <f>SA!R14</f>
@@ -3237,7 +3290,7 @@
       <c r="E15" s="5"/>
       <c r="F15" s="5">
         <f t="shared" ref="F15:F16" si="17">SUM(E12:F12)</f>
-        <v>5.5973981938185107</v>
+        <v>4.1980486453638832</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5">
@@ -3299,7 +3352,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5">
         <f t="shared" si="17"/>
-        <v>6.1809242365089148</v>
+        <v>4.6356931773816861</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5">
@@ -3671,18 +3724,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3187F1C3-D70F-4E32-A602-1BDAAF3FCCD9}">
   <dimension ref="A1:X52"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13:X15"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="17.47265625" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" customWidth="1"/>
     <col min="4" max="6" width="15" customWidth="1"/>
-    <col min="7" max="8" width="12.3671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.3671875" customWidth="1"/>
-    <col min="11" max="14" width="12.3671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.36328125" customWidth="1"/>
+    <col min="11" max="14" width="12.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
@@ -3755,7 +3808,7 @@
         <v>35</v>
       </c>
       <c r="Q2">
-        <v>0.1</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -3812,6 +3865,12 @@
       <c r="N3" s="5">
         <f>C22</f>
         <v>14148.743003039899</v>
+      </c>
+      <c r="P3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q3">
+        <v>2.9</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -4252,51 +4311,51 @@
       </c>
       <c r="C11" s="5">
         <f>$S10*C$10*$Q$2/S16</f>
-        <v>1.4606944295969781</v>
+        <v>1.0955208221977335</v>
       </c>
       <c r="D11" s="5">
         <f>$S10*D$10*$Q$2/S16</f>
-        <v>0.61568896419099461</v>
+        <v>0.46176672314324591</v>
       </c>
       <c r="E11" s="5">
         <f>T10*E$10*$Q$2/T16</f>
-        <v>4.3052519462912855</v>
+        <v>3.2289389597184641</v>
       </c>
       <c r="F11" s="5">
         <f>T10*F$10*$Q$2/T16</f>
-        <v>1.6597615807207757</v>
+        <v>1.2448211855405815</v>
       </c>
       <c r="G11" s="5">
         <f>$U10*G$10*$Q$2/$U16</f>
-        <v>1.9360575140131866</v>
+        <v>1.4520431355098897</v>
       </c>
       <c r="H11" s="5">
         <f>$U10*H$10*$Q$2/$U16</f>
-        <v>0.7463892752183775</v>
+        <v>0.5597919564137831</v>
       </c>
       <c r="I11" s="5">
         <f>$V10*I$10*$Q$2/$V16</f>
-        <v>1.7229437506570553</v>
+        <v>1.2922078129927912</v>
       </c>
       <c r="J11" s="5">
         <f>$V10*J$10*$Q$2/$V16</f>
-        <v>0.75431122532910189</v>
+        <v>0.56573341899682639</v>
       </c>
       <c r="K11" s="5">
         <f>$W10*K$10*$Q$2/$W16</f>
-        <v>1.7229437506570546</v>
+        <v>1.292207812992791</v>
       </c>
       <c r="L11" s="5">
         <f>$W10*L$10*$Q$2/$W16</f>
-        <v>0.75431122532910166</v>
+        <v>0.56573341899682628</v>
       </c>
       <c r="M11" s="5">
         <f>$X10*M$10*$Q$2/$X16</f>
-        <v>1.9797016129538509</v>
+        <v>1.4847762097153883</v>
       </c>
       <c r="N11" s="5">
         <f>$X10*N$10*$Q$2/$X16</f>
-        <v>0.78328932865212686</v>
+        <v>0.58746699648909517</v>
       </c>
       <c r="R11" t="str">
         <f>SA!R11</f>
@@ -4344,11 +4403,11 @@
       </c>
       <c r="E12" s="5">
         <f>T11*E$10*$Q$2/T16</f>
-        <v>1.1491116347028092</v>
+        <v>0.86183372602710684</v>
       </c>
       <c r="F12" s="5">
         <f>U11*F$10*$Q$2/U16</f>
-        <v>1.0115414703338819</v>
+        <v>0.7586561027504114</v>
       </c>
       <c r="G12" s="5">
         <f>$U11*G$10/$U16</f>
@@ -4428,11 +4487,11 @@
       </c>
       <c r="E13" s="5">
         <f>T12*E$10*$Q$2/T16</f>
-        <v>0.73216890739274987</v>
+        <v>0.54912668054456226</v>
       </c>
       <c r="F13" s="5">
         <f>U12*F$10*$Q$2/U16</f>
-        <v>0.18787474242639904</v>
+        <v>0.14090605681979926</v>
       </c>
       <c r="G13" s="5">
         <f>$U12*G$10/$U16</f>
@@ -4501,32 +4560,32 @@
       <c r="C14" s="5"/>
       <c r="D14" s="7">
         <f>SUM(C11:D11)</f>
-        <v>2.0763833937879728</v>
+        <v>1.5572875453409794</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7">
         <f>SUM(E11:F11)</f>
-        <v>5.9650135270120614</v>
+        <v>4.4737601452590461</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7">
         <f>SUM(G11:H11)</f>
-        <v>2.6824467892315642</v>
+        <v>2.0118350919236727</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7">
         <f>SUM(I11:J11)</f>
-        <v>2.4772549759861571</v>
+        <v>1.8579412319896176</v>
       </c>
       <c r="K14" s="7"/>
       <c r="L14" s="7">
         <f>SUM(K11:L11)</f>
-        <v>2.4772549759861562</v>
+        <v>1.8579412319896171</v>
       </c>
       <c r="M14" s="7"/>
       <c r="N14" s="7">
         <f>SUM(M11:N11)</f>
-        <v>2.7629909416059779</v>
+        <v>2.0722432062044835</v>
       </c>
       <c r="R14" t="str">
         <f>SA!R14</f>
@@ -4568,7 +4627,7 @@
       <c r="E15" s="5"/>
       <c r="F15" s="5">
         <f t="shared" ref="F15:F16" si="24">SUM(E12:F12)</f>
-        <v>2.1606531050366913</v>
+        <v>1.6204898287775182</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5">
@@ -4630,7 +4689,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5">
         <f t="shared" si="24"/>
-        <v>0.92004364981914888</v>
+        <v>0.69003273736436155</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5">
@@ -4994,23 +5053,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2117CE48-2110-49AB-BC7C-6B96535D599C}">
   <dimension ref="A1:X52"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13:X15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="17.47265625" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" customWidth="1"/>
     <col min="4" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="15.3671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.3671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.3671875" customWidth="1"/>
-    <col min="11" max="11" width="15.3671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.3671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.3671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.3671875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.3671875" customWidth="1"/>
+    <col min="7" max="7" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.36328125" customWidth="1"/>
+    <col min="11" max="11" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
@@ -5080,10 +5139,10 @@
         <v>7</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="Q2">
-        <v>0.1</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -5140,6 +5199,12 @@
       <c r="N3" s="5">
         <f>C22</f>
         <v>14850.6252584063</v>
+      </c>
+      <c r="P3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q3">
+        <v>3.4</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -5194,6 +5259,13 @@
         <f>C46</f>
         <v>13884.617890776701</v>
       </c>
+      <c r="P4" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q4">
+        <f>1-Q3*Q2</f>
+        <v>0.745</v>
+      </c>
     </row>
     <row r="5" spans="1:24">
       <c r="A5" t="s">
@@ -5562,31 +5634,31 @@
       </c>
       <c r="C11" s="6">
         <f>$S10*C$10*$Q$2/S16</f>
-        <v>0.65109980054129102</v>
+        <v>0.48832485040596829</v>
       </c>
       <c r="D11" s="6">
         <f>$S10*D$10*$Q$2/S16</f>
-        <v>0.29003248858021313</v>
+        <v>0.21752436643515979</v>
       </c>
       <c r="E11" s="6">
         <f>T10*E$10*$Q$2/T16</f>
-        <v>5.0977455680703292</v>
+        <v>3.8233091760527467</v>
       </c>
       <c r="F11" s="6">
         <f>T10*F$10*$Q$2/T16</f>
-        <v>2.0050262678272706</v>
+        <v>1.5037697008704527</v>
       </c>
       <c r="G11" s="6">
         <f>$U10*G$10*$Q$2/$U16</f>
-        <v>0.90236218323927186</v>
+        <v>0.67677163742945379</v>
       </c>
       <c r="H11" s="6">
         <f>$U10*H$10*$Q$2/$U16</f>
-        <v>0.35491372731918658</v>
+        <v>0.26618529548938991</v>
       </c>
       <c r="I11" s="6">
         <f>$V10*I$10*$Q$2/$V16</f>
-        <v>0.75007167433095989</v>
+        <v>0.56255375574821986</v>
       </c>
       <c r="J11" s="6">
         <f>$V10*J$10*$Q$2/$V16</f>
@@ -5594,19 +5666,19 @@
       </c>
       <c r="K11" s="6">
         <f>$W10*K$10*$Q$2/$W16</f>
-        <v>0.75007167433095989</v>
+        <v>0.56255375574821986</v>
       </c>
       <c r="L11" s="6">
         <f>$W10*L$10*$Q$2/$W16</f>
-        <v>0.34914421109672339</v>
+        <v>0.26185815832254256</v>
       </c>
       <c r="M11" s="6">
         <f>$X10*M$10*$Q$2/$X16</f>
-        <v>0.96722937786746344</v>
+        <v>0.72542203340059752</v>
       </c>
       <c r="N11" s="6">
         <f>$X10*N$10*$Q$2/$X16</f>
-        <v>0.40354281882294851</v>
+        <v>0.30265711411721136</v>
       </c>
       <c r="R11" t="str">
         <f>SA!R11</f>
@@ -5654,11 +5726,11 @@
       </c>
       <c r="E12" s="6">
         <f>T11*E$10*$Q$2/T16</f>
-        <v>3.2978381945496431</v>
+        <v>2.4733786459122316</v>
       </c>
       <c r="F12" s="6">
         <f>U11*F$10*$Q$2/U16</f>
-        <v>2.2711867988888992</v>
+        <v>1.7033900991666742</v>
       </c>
       <c r="G12" s="6">
         <f>$U11*G$10/$U16</f>
@@ -5738,11 +5810,11 @@
       </c>
       <c r="E13" s="6">
         <f>T12*E$10*$Q$2/T16</f>
-        <v>2.048378235883368</v>
+        <v>1.5362836769125259</v>
       </c>
       <c r="F13" s="6">
         <f>U12*F$10*$Q$2/U16</f>
-        <v>0.45253803328544273</v>
+        <v>0.33940352496408205</v>
       </c>
       <c r="G13" s="6">
         <f>$U12*G$10/$U16</f>
@@ -5811,32 +5883,32 @@
       <c r="C14" s="5"/>
       <c r="D14" s="7">
         <f>SUM(C11:D11)</f>
-        <v>0.94113228912150415</v>
+        <v>0.70584921684112811</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7">
         <f>SUM(E11:F11)</f>
-        <v>7.1027718358975998</v>
+        <v>5.3270788769231991</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7">
         <f>SUM(G11:H11)</f>
-        <v>1.2572759105584583</v>
+        <v>0.94295693291884364</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7">
         <f>SUM(I11:J11)</f>
-        <v>0.75007167433095989</v>
+        <v>0.56255375574821986</v>
       </c>
       <c r="K14" s="7"/>
       <c r="L14" s="7">
         <f>SUM(K11:L11)</f>
-        <v>1.0992158854276832</v>
+        <v>0.82441191407076242</v>
       </c>
       <c r="M14" s="7"/>
       <c r="N14" s="7">
         <f>SUM(M11:N11)</f>
-        <v>1.3707721966904121</v>
+        <v>1.0280791475178088</v>
       </c>
       <c r="R14" t="str">
         <f>SA!R14</f>
@@ -5878,7 +5950,7 @@
       <c r="E15" s="5"/>
       <c r="F15" s="5">
         <f t="shared" ref="F15:F16" si="18">SUM(E12:F12)</f>
-        <v>5.5690249934385427</v>
+        <v>4.1767687450789062</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5">
@@ -5940,7 +6012,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5">
         <f t="shared" si="18"/>
-        <v>2.5009162691688109</v>
+        <v>1.875687201876608</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5">
